--- a/biology/Médecine/Veine_circonflexe_humérale_postérieure/Veine_circonflexe_humérale_postérieure.xlsx
+++ b/biology/Médecine/Veine_circonflexe_humérale_postérieure/Veine_circonflexe_humérale_postérieure.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Veine_circonflexe_hum%C3%A9rale_post%C3%A9rieure</t>
+          <t>Veine_circonflexe_humérale_postérieure</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La veine circonflexe humérale postérieure est une veine du bras.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Veine_circonflexe_hum%C3%A9rale_post%C3%A9rieure</t>
+          <t>Veine_circonflexe_humérale_postérieure</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La veine circonflexe humérale postérieure est la veine satellite de l'artère circonflexe postérieure de l'humérus.
 Elle passe derrière le col chirurgical de l'humérus et contribue au système anastomotique de la veine circonflexe scapulaire.
